--- a/xlsx/.org_intext.xlsx
+++ b/xlsx/.org_intext.xlsx
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%82%E7%B4%9A%E5%9F%9F</t>
   </si>
   <si>
-    <t>頂級域</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_.org</t>
+    <t>顶级域</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_.org</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E9%A0%82%E7%B4%9A%E5%9F%9F%E5%90%8D</t>
   </si>
   <si>
-    <t>通用頂級域名</t>
+    <t>通用顶级域名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%9F%E5%90%8D%E6%B3%A8%E5%86%8C%E5%B1%80</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E9%A0%82%E7%B4%9A%E5%9F%9F</t>
   </si>
   <si>
-    <t>通用頂級域</t>
+    <t>通用顶级域</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/.gov</t>
@@ -89,13 +89,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E7%87%9F%E5%88%A9%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>非營利機構</t>
+    <t>非营利机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際組織</t>
+    <t>国际组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/.com</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>維基百科</t>
+    <t>维基百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%9F%E5%90%8D</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%8F%8A%E5%9C%B0%E5%8D%80%E9%A0%82%E7%B4%9A%E5%9F%9F</t>
   </si>
   <si>
-    <t>國家及地區頂級域</t>
+    <t>国家及地区顶级域</t>
   </si>
 </sst>
 </file>
